--- a/public/excel_template/ImportUser.xlsx
+++ b/public/excel_template/ImportUser.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -24,19 +24,22 @@
     <t>Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Department Code</t>
+    <t xml:space="preserve">Department Name</t>
   </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t xml:space="preserve">Trisa Abdul Hakim</t>
-  </si>
-  <si>
-    <t>hakims</t>
-  </si>
-  <si>
-    <t>hakimpbg@gmail.com</t>
+    <t>Foobar</t>
+  </si>
+  <si>
+    <t>foobar</t>
+  </si>
+  <si>
+    <t>foo@mail.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviane Trantow</t>
   </si>
   <si>
     <t>admin</t>
@@ -652,11 +655,11 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>89140</v>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
